--- a/data/evaluation/evaluation_South_Winter_Tomatoes.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Tomatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2425.707275363521</v>
+        <v>2423.929374038043</v>
       </c>
       <c r="C4" t="n">
-        <v>12000584.0352357</v>
+        <v>12074101.11041978</v>
       </c>
       <c r="D4" t="n">
-        <v>3464.185912337226</v>
+        <v>3474.780728394207</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1835121611600499</v>
+        <v>-0.1907625043331656</v>
       </c>
     </row>
     <row r="5">
